--- a/cours1/Enrich.xlsx
+++ b/cours1/Enrich.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="14115" windowHeight="7995"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="14115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Noyau</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Eisot</t>
+  </si>
+  <si>
+    <t>Rcrit</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -148,13 +151,16 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -169,6 +175,186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rcrit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1319999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="26836992"/>
+        <c:axId val="26835200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="26836992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="26835200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26835200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="26836992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,23 +731,23 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>B16/SUM(B15:B17)</f>
-        <v>5.0597179658690948E-2</v>
-      </c>
-      <c r="C7" s="11">
+        <v>6.0708871814729753E-2</v>
+      </c>
+      <c r="C7" s="10">
         <f t="shared" ref="C7:F7" si="1">C16/SUM(C15:C17)</f>
         <v>0.10112986075771445</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
         <v>0.20200221996444881</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>0.50308408579466457</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>0.90098057471193194</v>
       </c>
@@ -570,8 +756,8 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.05</v>
+      <c r="B8" s="12">
+        <v>0.06</v>
       </c>
       <c r="C8" s="8">
         <v>0.1</v>
@@ -588,13 +774,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -627,7 +813,7 @@
       </c>
       <c r="B11" s="5">
         <f>B8*$D5</f>
-        <v>0.56416498800000003</v>
+        <v>0.67699798560000002</v>
       </c>
       <c r="C11" s="5">
         <f>C8*$D5</f>
@@ -652,10 +838,10 @@
       </c>
       <c r="B12" s="5">
         <f>$D5-B11-B10</f>
-        <v>10.604044212</v>
+        <v>10.4912112144</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12:G12" si="3">$D5-C11-C10</f>
+        <f t="shared" ref="C12:F12" si="3">$D5-C11-C10</f>
         <v>10.039879224</v>
       </c>
       <c r="D12" s="5">
@@ -680,7 +866,7 @@
         <v>11.28329976</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:G13" si="4">SUM(C10:C12)</f>
+        <f t="shared" ref="C13:F13" si="4">SUM(C10:C12)</f>
         <v>11.28329976</v>
       </c>
       <c r="D13" s="7">
@@ -698,35 +884,35 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>B10/$C2</f>
         <v>4.9184000000000001E-4</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:F15" si="5">C10/$C2</f>
         <v>4.9184000000000001E-4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="5"/>
         <v>4.9184000000000001E-4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="5"/>
         <v>4.9184000000000001E-4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="5"/>
         <v>4.9184000000000001E-4</v>
       </c>
@@ -735,23 +921,23 @@
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <f t="shared" ref="B16:F17" si="6">B11/$C3</f>
-        <v>2.4007020765957447E-3</v>
-      </c>
-      <c r="C16" s="10">
+        <v>2.8808424919148936E-3</v>
+      </c>
+      <c r="C16" s="9">
         <f t="shared" si="6"/>
         <v>4.8014041531914894E-3</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <f t="shared" si="6"/>
         <v>9.6028083063829789E-3</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <f t="shared" si="6"/>
         <v>2.4007020765957447E-2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <f t="shared" si="6"/>
         <v>4.3212637378723405E-2</v>
       </c>
@@ -760,23 +946,23 @@
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f t="shared" si="6"/>
-        <v>4.455480761344538E-2</v>
-      </c>
-      <c r="C17" s="10">
+        <v>4.4080719388235295E-2</v>
+      </c>
+      <c r="C17" s="9">
         <f t="shared" si="6"/>
         <v>4.2184366487394959E-2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f t="shared" si="6"/>
         <v>3.7443484235294117E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f t="shared" si="6"/>
         <v>2.3220837478991598E-2</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <f t="shared" si="6"/>
         <v>4.2573084705882346E-3</v>
       </c>
@@ -793,13 +979,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>9.1319999999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -807,7 +1045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
